--- a/counts/ALS Mice/experimental/results/control_3-tg_1/Results edgeR.xlsx
+++ b/counts/ALS Mice/experimental/results/control_3-tg_1/Results edgeR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="267">
   <si>
     <t>header</t>
   </si>
@@ -69,6 +69,12 @@
     <t>entrez</t>
   </si>
   <si>
+    <t>GOID</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
     <t>ENSMUSG00000000120</t>
   </si>
   <si>
@@ -631,6 +637,183 @@
   </si>
   <si>
     <t>320026</t>
+  </si>
+  <si>
+    <t>GO:0001540</t>
+  </si>
+  <si>
+    <t>GO:0001501</t>
+  </si>
+  <si>
+    <t>GO:0005737</t>
+  </si>
+  <si>
+    <t>GO:0000103</t>
+  </si>
+  <si>
+    <t>GO:0005509</t>
+  </si>
+  <si>
+    <t>GO:0003674</t>
+  </si>
+  <si>
+    <t>GO:0000187</t>
+  </si>
+  <si>
+    <t>GO:0000166</t>
+  </si>
+  <si>
+    <t>GO:0000801</t>
+  </si>
+  <si>
+    <t>GO:0003865</t>
+  </si>
+  <si>
+    <t>GO:0001933</t>
+  </si>
+  <si>
+    <t>GO:0001568</t>
+  </si>
+  <si>
+    <t>GO:0001527</t>
+  </si>
+  <si>
+    <t>GO:0000122</t>
+  </si>
+  <si>
+    <t>GO:0001502</t>
+  </si>
+  <si>
+    <t>GO:0004869</t>
+  </si>
+  <si>
+    <t>GO:0001503</t>
+  </si>
+  <si>
+    <t>GO:0002175</t>
+  </si>
+  <si>
+    <t>GO:0001934</t>
+  </si>
+  <si>
+    <t>GO:0004497</t>
+  </si>
+  <si>
+    <t>GO:0000272</t>
+  </si>
+  <si>
+    <t>GO:0005874</t>
+  </si>
+  <si>
+    <t>GO:0001662</t>
+  </si>
+  <si>
+    <t>GO:0005216</t>
+  </si>
+  <si>
+    <t>GO:0002862</t>
+  </si>
+  <si>
+    <t>GO:0002376</t>
+  </si>
+  <si>
+    <t>GO:0005515</t>
+  </si>
+  <si>
+    <t>GO:0004867</t>
+  </si>
+  <si>
+    <t>GO:0005622</t>
+  </si>
+  <si>
+    <t>beta-amyloid binding</t>
+  </si>
+  <si>
+    <t>skeletal system development</t>
+  </si>
+  <si>
+    <t>cytoplasm</t>
+  </si>
+  <si>
+    <t>sulfate assimilation</t>
+  </si>
+  <si>
+    <t>calcium ion binding</t>
+  </si>
+  <si>
+    <t>molecular_function</t>
+  </si>
+  <si>
+    <t>activation of MAPK activity</t>
+  </si>
+  <si>
+    <t>nucleotide binding</t>
+  </si>
+  <si>
+    <t>central element</t>
+  </si>
+  <si>
+    <t>3-oxo-5-alpha-steroid 4-dehydrogenase activity</t>
+  </si>
+  <si>
+    <t>negative regulation of protein phosphorylation</t>
+  </si>
+  <si>
+    <t>blood vessel development</t>
+  </si>
+  <si>
+    <t>microfibril</t>
+  </si>
+  <si>
+    <t>negative regulation of transcription from RNA polymerase II promoter</t>
+  </si>
+  <si>
+    <t>cartilage condensation</t>
+  </si>
+  <si>
+    <t>cysteine-type endopeptidase inhibitor activity</t>
+  </si>
+  <si>
+    <t>ossification</t>
+  </si>
+  <si>
+    <t>protein localization to paranode region of axon</t>
+  </si>
+  <si>
+    <t>positive regulation of protein phosphorylation</t>
+  </si>
+  <si>
+    <t>monooxygenase activity</t>
+  </si>
+  <si>
+    <t>polysaccharide catabolic process</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>microtubule</t>
+  </si>
+  <si>
+    <t>behavioral fear response</t>
+  </si>
+  <si>
+    <t>ion channel activity</t>
+  </si>
+  <si>
+    <t>negative regulation of inflammatory response to antigenic stimulus</t>
+  </si>
+  <si>
+    <t>immune system process</t>
+  </si>
+  <si>
+    <t>protein binding</t>
+  </si>
+  <si>
+    <t>serine-type endopeptidase inhibitor activity</t>
+  </si>
+  <si>
+    <t>intracellular</t>
   </si>
 </sst>
 </file>
@@ -778,10 +961,16 @@
       <c r="G1" t="s">
         <v>17</v>
       </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" t="n">
         <v>-1.1787654140996136</v>
@@ -793,18 +982,24 @@
         <v>6.633536281970633E-4</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G2" t="s">
-        <v>164</v>
+        <v>166</v>
+      </c>
+      <c r="H2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" t="n">
         <v>1.3473670018672979</v>
@@ -816,18 +1011,24 @@
         <v>2.4056723496515095E-4</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G3" t="s">
-        <v>165</v>
+        <v>167</v>
+      </c>
+      <c r="H3" t="s">
+        <v>209</v>
+      </c>
+      <c r="I3" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="n">
         <v>-2.3231577030416846</v>
@@ -839,18 +1040,24 @@
         <v>3.999799754814543E-4</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G4" t="s">
-        <v>166</v>
+        <v>168</v>
+      </c>
+      <c r="H4" t="s">
+        <v>210</v>
+      </c>
+      <c r="I4" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="n">
         <v>-1.0681552947305961</v>
@@ -862,18 +1069,24 @@
         <v>1.6363328116239815E-6</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G5" t="s">
-        <v>167</v>
+        <v>169</v>
+      </c>
+      <c r="H5" t="s">
+        <v>211</v>
+      </c>
+      <c r="I5" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
         <v>1.0835947714047893</v>
@@ -885,18 +1098,24 @@
         <v>2.7664499893021007E-11</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G6" t="s">
-        <v>168</v>
+        <v>170</v>
+      </c>
+      <c r="H6" t="s">
+        <v>212</v>
+      </c>
+      <c r="I6" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" t="n">
         <v>1.0476060285618713</v>
@@ -908,18 +1127,24 @@
         <v>1.342837360174019E-4</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G7" t="s">
-        <v>169</v>
+        <v>171</v>
+      </c>
+      <c r="H7" t="s">
+        <v>213</v>
+      </c>
+      <c r="I7" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" t="n">
         <v>1.0703979058734845</v>
@@ -931,18 +1156,24 @@
         <v>1.4003972097143767E-6</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G8" t="s">
-        <v>170</v>
+        <v>172</v>
+      </c>
+      <c r="H8" t="s">
+        <v>214</v>
+      </c>
+      <c r="I8" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" t="n">
         <v>1.9881254358719076</v>
@@ -954,18 +1185,24 @@
         <v>4.826669615079864E-9</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G9" t="s">
-        <v>171</v>
+        <v>173</v>
+      </c>
+      <c r="H9" t="s">
+        <v>215</v>
+      </c>
+      <c r="I9" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" t="n">
         <v>1.6384066950709775</v>
@@ -977,18 +1214,24 @@
         <v>9.287645684209529E-6</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G10" t="s">
-        <v>172</v>
+        <v>174</v>
+      </c>
+      <c r="H10" t="s">
+        <v>216</v>
+      </c>
+      <c r="I10" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n">
         <v>1.0169468270112987</v>
@@ -1000,18 +1243,24 @@
         <v>2.4992827513410084E-8</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G11" t="s">
-        <v>173</v>
+        <v>175</v>
+      </c>
+      <c r="H11" t="s">
+        <v>217</v>
+      </c>
+      <c r="I11" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n">
         <v>1.959214618664969</v>
@@ -1023,18 +1272,24 @@
         <v>0.009560667970853828</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G12" t="s">
-        <v>174</v>
+        <v>176</v>
+      </c>
+      <c r="H12" t="s">
+        <v>209</v>
+      </c>
+      <c r="I12" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" t="n">
         <v>-1.4371414173336998</v>
@@ -1046,18 +1301,24 @@
         <v>1.7496402049867286E-5</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
-        <v>175</v>
+        <v>177</v>
+      </c>
+      <c r="H13" t="s">
+        <v>218</v>
+      </c>
+      <c r="I13" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" t="n">
         <v>1.057409481385407</v>
@@ -1069,18 +1330,24 @@
         <v>5.614816382363302E-4</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
-        <v>176</v>
+        <v>178</v>
+      </c>
+      <c r="H14" t="s">
+        <v>219</v>
+      </c>
+      <c r="I14" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" t="n">
         <v>1.1977154461072879</v>
@@ -1092,18 +1359,24 @@
         <v>1.6343076288630636E-10</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G15" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+      <c r="H15" t="s">
+        <v>220</v>
+      </c>
+      <c r="I15" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" t="n">
         <v>1.1240859470817741</v>
@@ -1115,18 +1388,24 @@
         <v>1.03868443052054E-6</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G16" t="s">
-        <v>178</v>
+        <v>180</v>
+      </c>
+      <c r="H16" t="s">
+        <v>209</v>
+      </c>
+      <c r="I16" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" t="n">
         <v>-1.2708474633342193</v>
@@ -1138,18 +1417,24 @@
         <v>0.0020905507006804313</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G17" t="s">
-        <v>179</v>
+        <v>181</v>
+      </c>
+      <c r="H17" t="s">
+        <v>221</v>
+      </c>
+      <c r="I17" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" t="n">
         <v>1.0078516454828879</v>
@@ -1161,18 +1446,24 @@
         <v>2.1237962229909193E-4</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G18" t="s">
-        <v>180</v>
+        <v>182</v>
+      </c>
+      <c r="H18" t="s">
+        <v>222</v>
+      </c>
+      <c r="I18" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" t="n">
         <v>2.2037814636548956</v>
@@ -1184,18 +1475,24 @@
         <v>1.3156944373401315E-7</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G19" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="H19" t="s">
+        <v>215</v>
+      </c>
+      <c r="I19" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" t="n">
         <v>2.250177306767986</v>
@@ -1207,18 +1504,24 @@
         <v>0.00353744066021063</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G20" t="s">
-        <v>182</v>
+        <v>184</v>
+      </c>
+      <c r="H20" t="s">
+        <v>223</v>
+      </c>
+      <c r="I20" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" t="n">
         <v>1.800654521905358</v>
@@ -1230,18 +1533,24 @@
         <v>0.01545728167233115</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G21" t="s">
-        <v>183</v>
+        <v>185</v>
+      </c>
+      <c r="H21" t="s">
+        <v>224</v>
+      </c>
+      <c r="I21" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" t="n">
         <v>1.0025747812101353</v>
@@ -1253,18 +1562,24 @@
         <v>7.128760187397669E-11</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F22" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G22" t="s">
-        <v>184</v>
+        <v>186</v>
+      </c>
+      <c r="H22" t="s">
+        <v>225</v>
+      </c>
+      <c r="I22" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" t="n">
         <v>1.9005468810482655</v>
@@ -1276,18 +1591,24 @@
         <v>0.017056797500554447</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F23" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G23" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="H23" t="s">
+        <v>226</v>
+      </c>
+      <c r="I23" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" t="n">
         <v>-1.4887185689653741</v>
@@ -1299,18 +1620,24 @@
         <v>1.8036334081356775E-4</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F24" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G24" t="s">
-        <v>186</v>
+        <v>188</v>
+      </c>
+      <c r="H24" t="s">
+        <v>227</v>
+      </c>
+      <c r="I24" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" t="n">
         <v>1.853366872182382</v>
@@ -1322,18 +1649,24 @@
         <v>0.017133406208314307</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" t="s">
-        <v>187</v>
+        <v>189</v>
+      </c>
+      <c r="H25" t="s">
+        <v>228</v>
+      </c>
+      <c r="I25" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" t="n">
         <v>-3.446678843636203</v>
@@ -1353,10 +1686,16 @@
       <c r="G26" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I26" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B27" t="n">
         <v>-1.0172459872224255</v>
@@ -1368,18 +1707,24 @@
         <v>0.015582324850222</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G27" t="s">
-        <v>188</v>
+        <v>190</v>
+      </c>
+      <c r="H27" t="s">
+        <v>215</v>
+      </c>
+      <c r="I27" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B28" t="n">
         <v>1.0285348700937287</v>
@@ -1391,18 +1736,24 @@
         <v>2.3607985694676199E-7</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F28" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G28" t="s">
-        <v>189</v>
+        <v>191</v>
+      </c>
+      <c r="H28" t="s">
+        <v>229</v>
+      </c>
+      <c r="I28" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B29" t="n">
         <v>1.8352696120521972</v>
@@ -1422,10 +1773,16 @@
       <c r="G29" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I29" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B30" t="n">
         <v>1.0581658757635728</v>
@@ -1445,10 +1802,16 @@
       <c r="G30" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I30" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B31" t="n">
         <v>-4.873665997717112</v>
@@ -1468,10 +1831,16 @@
       <c r="G31" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I31" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B32" t="n">
         <v>1.006132051354332</v>
@@ -1483,18 +1852,24 @@
         <v>8.391168798781134E-5</v>
       </c>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F32" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G32" t="s">
-        <v>190</v>
+        <v>192</v>
+      </c>
+      <c r="H32" t="s">
+        <v>230</v>
+      </c>
+      <c r="I32" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B33" t="n">
         <v>1.0757748480482903</v>
@@ -1506,18 +1881,24 @@
         <v>0.009765207880713573</v>
       </c>
       <c r="E33" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F33" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G33" t="s">
-        <v>191</v>
+        <v>193</v>
+      </c>
+      <c r="H33" t="s">
+        <v>231</v>
+      </c>
+      <c r="I33" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B34" t="n">
         <v>1.2921479093661759</v>
@@ -1529,18 +1910,24 @@
         <v>1.3396593359858851E-7</v>
       </c>
       <c r="E34" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F34" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G34" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="H34" t="s">
+        <v>232</v>
+      </c>
+      <c r="I34" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B35" t="n">
         <v>1.0271253477523996</v>
@@ -1552,18 +1939,24 @@
         <v>0.016360828971721753</v>
       </c>
       <c r="E35" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F35" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G35" t="s">
-        <v>193</v>
+        <v>195</v>
+      </c>
+      <c r="H35" t="s">
+        <v>212</v>
+      </c>
+      <c r="I35" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B36" t="n">
         <v>1.7964095127997255</v>
@@ -1575,18 +1968,24 @@
         <v>0.010674548096738755</v>
       </c>
       <c r="E36" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F36" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G36" t="s">
-        <v>194</v>
+        <v>196</v>
+      </c>
+      <c r="H36" t="s">
+        <v>233</v>
+      </c>
+      <c r="I36" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B37" t="n">
         <v>1.5452621306460013</v>
@@ -1598,18 +1997,24 @@
         <v>0.021492810842897996</v>
       </c>
       <c r="E37" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F37" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G37" t="s">
-        <v>195</v>
+        <v>197</v>
+      </c>
+      <c r="H37" t="s">
+        <v>233</v>
+      </c>
+      <c r="I37" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B38" t="n">
         <v>1.1700903956453645</v>
@@ -1621,18 +2026,24 @@
         <v>0.0016871020963106008</v>
       </c>
       <c r="E38" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F38" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G38" t="s">
-        <v>196</v>
+        <v>198</v>
+      </c>
+      <c r="H38" t="s">
+        <v>234</v>
+      </c>
+      <c r="I38" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B39" t="n">
         <v>5.690140227332717</v>
@@ -1652,10 +2063,16 @@
       <c r="G39" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I39" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B40" t="n">
         <v>-1.0059294716333695</v>
@@ -1667,18 +2084,24 @@
         <v>6.1097361452830745E-6</v>
       </c>
       <c r="E40" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F40" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G40" t="s">
-        <v>197</v>
+        <v>199</v>
+      </c>
+      <c r="H40" t="s">
+        <v>235</v>
+      </c>
+      <c r="I40" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B41" t="n">
         <v>2.0100115189700696</v>
@@ -1698,10 +2121,16 @@
       <c r="G41" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I41" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B42" t="n">
         <v>1.163738591074075</v>
@@ -1721,10 +2150,16 @@
       <c r="G42" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I42" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B43" t="n">
         <v>-1.0976754268617677</v>
@@ -1744,10 +2179,16 @@
       <c r="G43" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I43" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B44" t="n">
         <v>1.0363590698161418</v>
@@ -1767,10 +2208,16 @@
       <c r="G44" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I44" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B45" t="n">
         <v>1.006114004408709</v>
@@ -1782,18 +2229,24 @@
         <v>7.830341740456373E-7</v>
       </c>
       <c r="E45" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F45" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G45" t="s">
-        <v>198</v>
+        <v>200</v>
+      </c>
+      <c r="H45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I45" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B46" t="n">
         <v>-1.1452150223023765</v>
@@ -1805,18 +2258,24 @@
         <v>1.2134341471481475E-10</v>
       </c>
       <c r="E46" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F46" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G46" t="s">
-        <v>199</v>
+        <v>201</v>
+      </c>
+      <c r="H46" t="s">
+        <v>236</v>
+      </c>
+      <c r="I46" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B47" t="n">
         <v>-2.651803927357465</v>
@@ -1828,18 +2287,24 @@
         <v>2.8715160655382473E-5</v>
       </c>
       <c r="E47" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F47" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G47" t="s">
-        <v>200</v>
+        <v>202</v>
+      </c>
+      <c r="H47" t="s">
+        <v>235</v>
+      </c>
+      <c r="I47" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B48" t="n">
         <v>-1.0492319283062495</v>
@@ -1851,18 +2316,24 @@
         <v>8.365373610217144E-4</v>
       </c>
       <c r="E48" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F48" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G48" t="s">
-        <v>201</v>
+        <v>203</v>
+      </c>
+      <c r="H48" t="s">
+        <v>213</v>
+      </c>
+      <c r="I48" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B49" t="n">
         <v>2.3708061475925635</v>
@@ -1882,10 +2353,16 @@
       <c r="G49" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I49" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B50" t="n">
         <v>1.0170275688366244</v>
@@ -1905,10 +2382,16 @@
       <c r="G50" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I50" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B51" t="n">
         <v>1.0021832271215823</v>
@@ -1928,10 +2411,16 @@
       <c r="G51" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I51" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B52" t="n">
         <v>2.193145347441517</v>
@@ -1951,10 +2440,16 @@
       <c r="G52" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I52" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B53" t="n">
         <v>-1.2024953868377024</v>
@@ -1974,10 +2469,16 @@
       <c r="G53" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I53" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B54" t="n">
         <v>-1.112231782372143</v>
@@ -1989,18 +2490,24 @@
         <v>2.7001436016489645E-4</v>
       </c>
       <c r="E54" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F54" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G54" t="s">
-        <v>202</v>
+        <v>204</v>
+      </c>
+      <c r="H54" t="s">
+        <v>213</v>
+      </c>
+      <c r="I54" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B55" t="n">
         <v>-1.3380470148273578</v>
@@ -2020,10 +2527,16 @@
       <c r="G55" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I55" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B56" t="n">
         <v>1.0005462600711992</v>
@@ -2035,18 +2548,24 @@
         <v>1.7417817321569245E-6</v>
       </c>
       <c r="E56" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F56" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G56" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="H56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I56" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B57" t="n">
         <v>1.2402981840477099</v>
@@ -2066,10 +2585,16 @@
       <c r="G57" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I57" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B58" t="n">
         <v>1.0181457993106486</v>
@@ -2089,10 +2614,16 @@
       <c r="G58" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I58" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B59" t="n">
         <v>1.0055037040911219</v>
@@ -2112,10 +2643,16 @@
       <c r="G59" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I59" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B60" t="n">
         <v>1.2218012173143566</v>
@@ -2127,18 +2664,24 @@
         <v>3.524207685513953E-5</v>
       </c>
       <c r="E60" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F60" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G60" t="s">
-        <v>204</v>
+        <v>206</v>
+      </c>
+      <c r="H60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I60" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B61" t="n">
         <v>1.0660001617244899</v>
@@ -2158,10 +2701,16 @@
       <c r="G61" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I61" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B62" t="n">
         <v>1.0801223916151717</v>
@@ -2173,18 +2722,24 @@
         <v>9.25075391913839E-5</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F62" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G62" t="s">
-        <v>205</v>
+        <v>207</v>
+      </c>
+      <c r="H62" t="s">
+        <v>213</v>
+      </c>
+      <c r="I62" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B63" t="n">
         <v>1.1917676447089047</v>
@@ -2203,6 +2758,12 @@
       </c>
       <c r="G63" t="e">
         <v>#N/A</v>
+      </c>
+      <c r="H63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I63" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
